--- a/data/excel/itemcfg.xlsx
+++ b/data/excel/itemcfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>CfgId</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Detail</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>普通物品1</t>
@@ -1215,13 +1221,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
@@ -1241,14 +1247,14 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1256,7 +1262,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1270,13 +1276,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1284,7 +1290,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1294,6 +1300,20 @@
       </c>
       <c r="D5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
